--- a/data/trans_orig/Q5416-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q5416-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>2725</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7865</v>
+        <v>7951</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02112547052606252</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.006385521149227723</v>
+        <v>0.006383461062226583</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06097357271729816</v>
+        <v>0.061641142272199</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6069</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2154</v>
+        <v>2122</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13251</v>
+        <v>11882</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02229670503254381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.007911302970803391</v>
+        <v>0.007794828546177327</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0486801959832452</v>
+        <v>0.04364914088118401</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -786,19 +786,19 @@
         <v>8794</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>4442</v>
+        <v>4281</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>16455</v>
+        <v>16498</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02192014159672714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01107194702898128</v>
+        <v>0.01066995294514001</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04101408907499018</v>
+        <v>0.04112101516783119</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>5671</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1992</v>
+        <v>2006</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12082</v>
+        <v>11583</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04396164772613795</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01544305267467952</v>
+        <v>0.01555271484934012</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09366534234730585</v>
+        <v>0.08979756412426605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>13</v>
@@ -836,19 +836,19 @@
         <v>14651</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>7482</v>
+        <v>8293</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23069</v>
+        <v>23704</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05382221539688017</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02748727369714386</v>
+        <v>0.03046610971239998</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08474591991647838</v>
+        <v>0.08707752599736857</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -857,19 +857,19 @@
         <v>20322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12213</v>
+        <v>12835</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30180</v>
+        <v>31486</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05065194571933049</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03044184047981421</v>
+        <v>0.03199008284123519</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0752246657270942</v>
+        <v>0.0784782285643446</v>
       </c>
     </row>
     <row r="6">
@@ -899,19 +899,19 @@
         <v>3109</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>928</v>
+        <v>938</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7653</v>
+        <v>9466</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01141963354072835</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.003407974226899388</v>
+        <v>0.003447208360448469</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02811265636345732</v>
+        <v>0.0347742086891345</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>3</v>
@@ -920,19 +920,19 @@
         <v>3109</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>8146</v>
+        <v>8573</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.007748108822093625</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002303981969901633</v>
+        <v>0.002276906693659942</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02030348516057017</v>
+        <v>0.02136809237948937</v>
       </c>
     </row>
     <row r="7">
@@ -949,19 +949,19 @@
         <v>120595</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>114111</v>
+        <v>113599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125011</v>
+        <v>125195</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9349128817477995</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8846422917526922</v>
+        <v>0.8806728320445575</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9691418385377522</v>
+        <v>0.9705753886776441</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>243</v>
@@ -970,19 +970,19 @@
         <v>248383</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>237576</v>
+        <v>237274</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>256586</v>
+        <v>257214</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9124614460298477</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8727610988151248</v>
+        <v>0.8716531903302243</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9425970665321539</v>
+        <v>0.9449019745018143</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>373</v>
@@ -991,19 +991,19 @@
         <v>368978</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>356649</v>
+        <v>357018</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>378160</v>
+        <v>379064</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9196798038618488</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8889479518420256</v>
+        <v>0.8898699431071373</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9425650003043308</v>
+        <v>0.9448173267844672</v>
       </c>
     </row>
     <row r="8">
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5490</v>
+        <v>6963</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.005390389902093987</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02696481379859112</v>
+        <v>0.03420202282141418</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5427</v>
+        <v>5542</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.002997297989136599</v>
@@ -1141,7 +1141,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01482065311132289</v>
+        <v>0.0151344147831781</v>
       </c>
     </row>
     <row r="10">
@@ -1158,19 +1158,19 @@
         <v>4649</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1791</v>
+        <v>1729</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10290</v>
+        <v>10232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02860234700711055</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01101855203950583</v>
+        <v>0.01063530832139856</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06330322357656183</v>
+        <v>0.06294591473234909</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>4</v>
@@ -1179,19 +1179,19 @@
         <v>4152</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1133</v>
+        <v>1136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9836</v>
+        <v>9344</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02039353289481447</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005562836929309357</v>
+        <v>0.005578440102151078</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04831058943190068</v>
+        <v>0.04589406994539504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>9</v>
@@ -1200,19 +1200,19 @@
         <v>8802</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>4002</v>
+        <v>4768</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16881</v>
+        <v>15873</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02403787904118043</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01092902069981566</v>
+        <v>0.0130223589679712</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04610494435703367</v>
+        <v>0.04334993917449631</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6424</v>
+        <v>5337</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005732774114340493</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03155169036947254</v>
+        <v>0.02621402050169772</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6604</v>
+        <v>5845</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.003187678931799006</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01803671205244045</v>
+        <v>0.01596383963301177</v>
       </c>
     </row>
     <row r="12">
@@ -1292,19 +1292,19 @@
         <v>157906</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>152265</v>
+        <v>152323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>160764</v>
+        <v>160826</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9713976529928895</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.936696776423438</v>
+        <v>0.9370540852676513</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9889814479604941</v>
+        <v>0.9893646916786015</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>194</v>
@@ -1313,19 +1313,19 @@
         <v>197180</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>191324</v>
+        <v>190283</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>201418</v>
+        <v>201345</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9684833030887511</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9397177652999107</v>
+        <v>0.9346066221335739</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9892974446685728</v>
+        <v>0.9889387144086496</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>360</v>
@@ -1334,19 +1334,19 @@
         <v>355087</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>346493</v>
+        <v>347146</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>360342</v>
+        <v>360021</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.969777144037884</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9463053334632673</v>
+        <v>0.9480893689107868</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9841305372137255</v>
+        <v>0.9832531947633636</v>
       </c>
     </row>
     <row r="13">
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7228</v>
+        <v>8236</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01607384728167305</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04948092864203489</v>
+        <v>0.05638609154899654</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -1475,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8115</v>
+        <v>7919</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.008068708484590681</v>
@@ -1484,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02788844978638241</v>
+        <v>0.02721459990845198</v>
       </c>
     </row>
     <row r="15">
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6804</v>
+        <v>6780</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01496920930201267</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04658413008062914</v>
+        <v>0.04641667779848429</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6675</v>
+        <v>6692</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.007514205154883852</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02294066472526056</v>
+        <v>0.02299645996467519</v>
       </c>
     </row>
     <row r="16">
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6249</v>
+        <v>5808</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007947351081106599</v>
@@ -1589,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04278079652545099</v>
+        <v>0.03976133958831172</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>6885</v>
+        <v>5781</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.003989390839320659</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02366076779435971</v>
+        <v>0.01986601112747464</v>
       </c>
     </row>
     <row r="17">
@@ -1640,19 +1640,19 @@
         <v>140372</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>134576</v>
+        <v>134232</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>143852</v>
+        <v>143900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9610095923352077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9213323743258608</v>
+        <v>0.918974850898654</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9848391146623899</v>
+        <v>0.9851654120342502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>279</v>
@@ -1661,19 +1661,19 @@
         <v>285289</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>278969</v>
+        <v>279297</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>288803</v>
+        <v>288790</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9804276955212048</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9587085373269844</v>
+        <v>0.9598360745129342</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9925047708770914</v>
+        <v>0.9924596044578068</v>
       </c>
     </row>
     <row r="18">
@@ -1875,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>6299</v>
+        <v>6292</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03246579625456188</v>
@@ -1884,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1605477238605452</v>
+        <v>0.1603627962755736</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1</v>
@@ -1896,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6989</v>
+        <v>5600</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01438069384358226</v>
@@ -1905,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07890248221801112</v>
+        <v>0.06322682119977255</v>
       </c>
     </row>
     <row r="22">
@@ -1935,7 +1935,7 @@
         <v>37961</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>32936</v>
+        <v>32943</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>39235</v>
@@ -1944,7 +1944,7 @@
         <v>0.9675342037454381</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8394522761394549</v>
+        <v>0.8396372037244261</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -1956,7 +1956,7 @@
         <v>87302</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>81587</v>
+        <v>82976</v>
       </c>
       <c r="T22" s="5" t="n">
         <v>88576</v>
@@ -1965,7 +1965,7 @@
         <v>0.9856193061564177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9210975177819879</v>
+        <v>0.9367731788002307</v>
       </c>
       <c r="W22" s="6" t="n">
         <v>1</v>
@@ -2060,19 +2060,19 @@
         <v>2725</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7738</v>
+        <v>7120</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005609235141961075</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0017054879872308</v>
+        <v>0.001704368783387322</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01592773430026866</v>
+        <v>0.01465599896734604</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -2081,19 +2081,19 @@
         <v>9515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>4341</v>
+        <v>4288</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>16861</v>
+        <v>18059</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01439207536110494</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.00656567993549364</v>
+        <v>0.006486713589591407</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.0255039038746934</v>
+        <v>0.02731634530588825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>13</v>
@@ -2102,19 +2102,19 @@
         <v>12240</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6468</v>
+        <v>6982</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21219</v>
+        <v>20826</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01067188928143724</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.005639862275842281</v>
+        <v>0.006087535183096196</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01850085283719236</v>
+        <v>0.01815791421015546</v>
       </c>
     </row>
     <row r="25">
@@ -2131,19 +2131,19 @@
         <v>10320</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5496</v>
+        <v>5598</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>18379</v>
+        <v>18895</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02124335748797245</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01131267987025027</v>
+        <v>0.01152250291483202</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03783206104696866</v>
+        <v>0.03889490084120293</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -2152,19 +2152,19 @@
         <v>20990</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>12607</v>
+        <v>13218</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31999</v>
+        <v>31059</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03174902117998142</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01906953933420111</v>
+        <v>0.01999399956851991</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04840234639655215</v>
+        <v>0.04698021583112749</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -2173,19 +2173,19 @@
         <v>31310</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20762</v>
+        <v>20308</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>43489</v>
+        <v>43118</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02729909122002459</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01810267340207888</v>
+        <v>0.0177068694219308</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03791822474754045</v>
+        <v>0.03759437250790491</v>
       </c>
     </row>
     <row r="26">
@@ -2218,16 +2218,16 @@
         <v>2318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>13780</v>
+        <v>13466</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01015014496903981</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003506533083018432</v>
+        <v>0.003505812406704891</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02084372145506345</v>
+        <v>0.02036797689003527</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -2236,19 +2236,19 @@
         <v>6710</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3025</v>
+        <v>2413</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>14901</v>
+        <v>15956</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.005850803630901262</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002637124422356597</v>
+        <v>0.002103963734019053</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01299209499179116</v>
+        <v>0.0139123684104519</v>
       </c>
     </row>
     <row r="27">
@@ -2265,19 +2265,19 @@
         <v>472759</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>464533</v>
+        <v>463522</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>478432</v>
+        <v>478198</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9731474073700664</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9562138819414311</v>
+        <v>0.9541340305718244</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9848252830693961</v>
+        <v>0.9843429460782064</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>610</v>
@@ -2286,19 +2286,19 @@
         <v>623897</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>611585</v>
+        <v>610048</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>635310</v>
+        <v>634704</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9437087584898738</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.9250847349381052</v>
+        <v>0.9227600600975848</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9609714001447929</v>
+        <v>0.9600555520457176</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1102</v>
@@ -2307,19 +2307,19 @@
         <v>1096656</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1080958</v>
+        <v>1082243</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1109020</v>
+        <v>1109907</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.956178215867637</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9424910139311753</v>
+        <v>0.943611160032249</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9669586744692944</v>
+        <v>0.9677317155854044</v>
       </c>
     </row>
     <row r="28">
@@ -2651,19 +2651,19 @@
         <v>3298</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1035</v>
+        <v>1040</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9069</v>
+        <v>9021</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02397904521121114</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007528712748140842</v>
+        <v>0.007560209238984192</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.06593828678923101</v>
+        <v>0.06559198085560235</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2672,19 +2672,19 @@
         <v>8891</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3999</v>
+        <v>4272</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16769</v>
+        <v>16999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04123240094318732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01854612980804459</v>
+        <v>0.01980938588113879</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0777662629576672</v>
+        <v>0.07883162589741109</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2693,19 +2693,19 @@
         <v>12189</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6299</v>
+        <v>6558</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>20457</v>
+        <v>21192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03451346214773576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01783710641476038</v>
+        <v>0.01856999389031246</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05792495253526849</v>
+        <v>0.06000481142869979</v>
       </c>
     </row>
     <row r="5">
@@ -2722,19 +2722,19 @@
         <v>4357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1093</v>
+        <v>1072</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10982</v>
+        <v>10257</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03168142475236952</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007947873171996056</v>
+        <v>0.007792220083835047</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07984942470309335</v>
+        <v>0.07457953374205675</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2743,19 +2743,19 @@
         <v>12821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6674</v>
+        <v>7071</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>21573</v>
+        <v>20775</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05945730564792913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03095212655094884</v>
+        <v>0.03279107177651637</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1000440512036321</v>
+        <v>0.0963447139638854</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -2764,19 +2764,19 @@
         <v>17178</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10708</v>
+        <v>9842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27229</v>
+        <v>28590</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0486406015454837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03032059894852224</v>
+        <v>0.02786756936014707</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07709994632864152</v>
+        <v>0.08095180647440721</v>
       </c>
     </row>
     <row r="6">
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5526</v>
+        <v>5530</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.005141100076280498</v>
@@ -2818,7 +2818,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02562620840475855</v>
+        <v>0.02564564931399816</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1</v>
@@ -2830,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5661</v>
+        <v>5593</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003139012059872139</v>
@@ -2839,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01602888400566032</v>
+        <v>0.01583659734311501</v>
       </c>
     </row>
     <row r="7">
@@ -2856,19 +2856,19 @@
         <v>129878</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>122704</v>
+        <v>123243</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>134386</v>
+        <v>134288</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9443395300364194</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8921751069037086</v>
+        <v>0.8960987681741897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9771204854049068</v>
+        <v>0.976405311817504</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>180</v>
@@ -2877,19 +2877,19 @@
         <v>192813</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>182146</v>
+        <v>182469</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>200528</v>
+        <v>200608</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.894169193332603</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8446981473420614</v>
+        <v>0.8461967938217732</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9299470855507694</v>
+        <v>0.9303182492849166</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>296</v>
@@ -2898,19 +2898,19 @@
         <v>322691</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>310132</v>
+        <v>309781</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>331824</v>
+        <v>332840</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9137069242469084</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.878145485825647</v>
+        <v>0.8771510980274349</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9395661970330842</v>
+        <v>0.9424441668584348</v>
       </c>
     </row>
     <row r="8">
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6826</v>
+        <v>6943</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01133371565966796</v>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03957933932013214</v>
+        <v>0.04025697385698085</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -3023,19 +3023,19 @@
         <v>10771</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5353</v>
+        <v>5308</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>19224</v>
+        <v>19570</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04359584901352907</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02166736718299651</v>
+        <v>0.02148230861104411</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07780887844303062</v>
+        <v>0.07920811430722054</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -3044,19 +3044,19 @@
         <v>12726</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7318</v>
+        <v>7330</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>22213</v>
+        <v>22139</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03033301929499096</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01744364220749065</v>
+        <v>0.01747113010637475</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05294557895165563</v>
+        <v>0.05276936405945197</v>
       </c>
     </row>
     <row r="10">
@@ -3073,19 +3073,19 @@
         <v>5369</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2109</v>
+        <v>2032</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>12024</v>
+        <v>11993</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03113119570157007</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01222983449155256</v>
+        <v>0.01178247443021967</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06971742563157694</v>
+        <v>0.06953385797800639</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>10</v>
@@ -3094,19 +3094,19 @@
         <v>10547</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>5115</v>
+        <v>5261</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18753</v>
+        <v>18902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04268962475243349</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0207039375708606</v>
+        <v>0.02129364380981134</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07590424678041374</v>
+        <v>0.07650396204489107</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>15</v>
@@ -3115,19 +3115,19 @@
         <v>15916</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9473</v>
+        <v>8728</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25493</v>
+        <v>25398</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03793800232765485</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02257879251062753</v>
+        <v>0.02080471838427505</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0607657174229002</v>
+        <v>0.06053824833831948</v>
       </c>
     </row>
     <row r="11">
@@ -3147,7 +3147,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13101</v>
+        <v>11314</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01315446935256319</v>
@@ -3156,7 +3156,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.07596186742302394</v>
+        <v>0.06560243274516309</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11273</v>
+        <v>10415</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.00540774799816187</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02687101374100099</v>
+        <v>0.02482501417913379</v>
       </c>
     </row>
     <row r="12">
@@ -3207,19 +3207,19 @@
         <v>162877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>154063</v>
+        <v>153053</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>168262</v>
+        <v>168086</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9443806192861988</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8932720720626383</v>
+        <v>0.8874167390164139</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9756003001734812</v>
+        <v>0.9745828449663183</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>216</v>
@@ -3228,19 +3228,19 @@
         <v>225749</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>215997</v>
+        <v>215765</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>234512</v>
+        <v>234073</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9137145262340375</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8742434773707809</v>
+        <v>0.8733058656698646</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9491831075329473</v>
+        <v>0.9474089772980048</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>365</v>
@@ -3249,19 +3249,19 @@
         <v>388625</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>375208</v>
+        <v>376040</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>399097</v>
+        <v>398287</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9263212303791923</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.8943394317163883</v>
+        <v>0.8963247235937803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9512808738880812</v>
+        <v>0.9493500180320974</v>
       </c>
     </row>
     <row r="13">
@@ -3353,19 +3353,19 @@
         <v>3153</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>997</v>
+        <v>984</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7853</v>
+        <v>9246</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01896741165485392</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005996393305636014</v>
+        <v>0.00591682732699244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04724279358406042</v>
+        <v>0.05562138764945842</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3374,19 +3374,19 @@
         <v>6407</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2129</v>
+        <v>2186</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14737</v>
+        <v>15554</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03335701475191182</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01108203063556165</v>
+        <v>0.01137916126461845</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07672578679386834</v>
+        <v>0.08098179476755134</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -3395,19 +3395,19 @@
         <v>9560</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4241</v>
+        <v>4263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18042</v>
+        <v>17918</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02668100082145012</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01183653548192254</v>
+        <v>0.01189783425798897</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05035435264318212</v>
+        <v>0.05000853475191742</v>
       </c>
     </row>
     <row r="15">
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6301</v>
+        <v>7079</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01219910431380289</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03790570164906966</v>
+        <v>0.0425854613885479</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>7</v>
@@ -3445,19 +3445,19 @@
         <v>7341</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>3058</v>
+        <v>3144</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14131</v>
+        <v>13941</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03822178816769416</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01591976469776642</v>
+        <v>0.01636973935802839</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0735718919905889</v>
+        <v>0.07258211601977972</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -3466,19 +3466,19 @@
         <v>9369</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4336</v>
+        <v>4235</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16527</v>
+        <v>16708</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02614864071916591</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01210066721056301</v>
+        <v>0.01181822400305602</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0461260736329753</v>
+        <v>0.04662997345974817</v>
       </c>
     </row>
     <row r="16">
@@ -3498,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5523</v>
+        <v>5012</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005928874218068018</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03322163664620099</v>
+        <v>0.03015138363442237</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3519,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6584</v>
+        <v>6671</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0113296909602506</v>
@@ -3528,7 +3528,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03428080326565942</v>
+        <v>0.03473426117205698</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -3537,19 +3537,19 @@
         <v>3162</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8751</v>
+        <v>9334</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.008823997956525314</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002754781435509013</v>
+        <v>0.002760572046976132</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0244223411526984</v>
+        <v>0.02605122751761654</v>
       </c>
     </row>
     <row r="17">
@@ -3566,19 +3566,19 @@
         <v>160068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153568</v>
+        <v>153821</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164141</v>
+        <v>164145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9629046098132752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9237980777527431</v>
+        <v>0.9253251409052659</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.987403114824552</v>
+        <v>0.9874277261234431</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -3587,19 +3587,19 @@
         <v>176147</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>166468</v>
+        <v>165936</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>183220</v>
+        <v>182668</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9170915061201435</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8666994579196672</v>
+        <v>0.8639308818279369</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9539159044762712</v>
+        <v>0.9510428633543573</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>310</v>
@@ -3608,19 +3608,19 @@
         <v>336215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>325229</v>
+        <v>326213</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>344633</v>
+        <v>344559</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9383463605028587</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9076854498349439</v>
+        <v>0.9104324450334719</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9618389600954632</v>
+        <v>0.9616343312493635</v>
       </c>
     </row>
     <row r="18">
@@ -3715,7 +3715,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5109</v>
+        <v>5102</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01321746199640529</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06541277240868623</v>
+        <v>0.06532447397740447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -3736,7 +3736,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5388</v>
+        <v>5335</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01270247634288152</v>
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06335462176194791</v>
+        <v>0.06273149420626291</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>7269</v>
+        <v>6757</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01294899477260006</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04455411792977505</v>
+        <v>0.04141783819106343</v>
       </c>
     </row>
     <row r="20">
@@ -3796,19 +3796,19 @@
         <v>4333</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1118</v>
+        <v>1094</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10943</v>
+        <v>10270</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05094773666776477</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01314438229413602</v>
+        <v>0.01286565023089202</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1286709009335733</v>
+        <v>0.1207532390016943</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -3817,19 +3817,19 @@
         <v>4333</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1092</v>
+        <v>1123</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11118</v>
+        <v>10754</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02655956982250872</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006696369181472187</v>
+        <v>0.006883758573222032</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0681458852339175</v>
+        <v>0.06591733604993995</v>
       </c>
     </row>
     <row r="21">
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>6363</v>
+        <v>4637</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01409246044584042</v>
@@ -3858,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0814745854534783</v>
+        <v>0.05937306133688577</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4742</v>
+        <v>5926</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01351287803395272</v>
@@ -3879,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05575948236358094</v>
+        <v>0.06967400922625565</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6828</v>
+        <v>7935</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01379031827931374</v>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04185257800448024</v>
+        <v>0.04863988632081843</v>
       </c>
     </row>
     <row r="22">
@@ -3917,7 +3917,7 @@
         <v>75964</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>71666</v>
+        <v>71226</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>78097</v>
@@ -3926,7 +3926,7 @@
         <v>0.9726900775577543</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9176515616149138</v>
+        <v>0.9120200847174404</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -3938,19 +3938,19 @@
         <v>78487</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>71751</v>
+        <v>71615</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81980</v>
+        <v>82825</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9228369089554009</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.843629097081685</v>
+        <v>0.8420340635898246</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9638994826015254</v>
+        <v>0.9738360699109559</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>135</v>
@@ -3959,19 +3959,19 @@
         <v>154451</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>146424</v>
+        <v>146974</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158910</v>
+        <v>158902</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9467011171255775</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8974999255464075</v>
+        <v>0.9008733523241638</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9740347858528599</v>
+        <v>0.9739887334771827</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>9438</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4185</v>
+        <v>4146</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>16157</v>
+        <v>16855</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01702568195966688</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.007548760544221899</v>
+        <v>0.007478864112438491</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02914654796907379</v>
+        <v>0.03040544713786299</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4084,19 +4084,19 @@
         <v>27149</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>17187</v>
+        <v>17288</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39394</v>
+        <v>38506</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.03669729101508939</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02323143473032807</v>
+        <v>0.02336753813576369</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.05324841948590404</v>
+        <v>0.0520473167378955</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>33</v>
@@ -4105,19 +4105,19 @@
         <v>36587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>25324</v>
+        <v>24710</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>50129</v>
+        <v>49901</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02827122035025677</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0195676490969862</v>
+        <v>0.01909381955343186</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03873516506421493</v>
+        <v>0.03855867970267843</v>
       </c>
     </row>
     <row r="25">
@@ -4134,19 +4134,19 @@
         <v>11754</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>5572</v>
+        <v>6189</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>20371</v>
+        <v>19861</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02120444010090629</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01005239508653144</v>
+        <v>0.01116498399383159</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03674798206076114</v>
+        <v>0.03582777958105079</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>33</v>
@@ -4155,19 +4155,19 @@
         <v>35043</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>24546</v>
+        <v>23562</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>47144</v>
+        <v>47004</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04736628003194996</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03317881955254932</v>
+        <v>0.03184845365469727</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06372367631387592</v>
+        <v>0.06353419951819042</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>44</v>
@@ -4176,19 +4176,19 @@
         <v>46797</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>34427</v>
+        <v>35327</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>60757</v>
+        <v>62612</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03616020576725992</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02660158456271795</v>
+        <v>0.02729732875105434</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04694734790752357</v>
+        <v>0.04838080777314178</v>
       </c>
     </row>
     <row r="26">
@@ -4205,19 +4205,19 @@
         <v>4355</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>981</v>
+        <v>1087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13774</v>
+        <v>14216</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007856101574248974</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001769691721248746</v>
+        <v>0.00196086539654983</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02484869040834767</v>
+        <v>0.02564534642284695</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -4226,19 +4226,19 @@
         <v>4434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>11594</v>
+        <v>11060</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.00599329591606045</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001508224865982153</v>
+        <v>0.001492103030379629</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01567161931499877</v>
+        <v>0.01494945019765669</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>7</v>
@@ -4247,19 +4247,19 @@
         <v>8789</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3296</v>
+        <v>3367</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16575</v>
+        <v>17762</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00679120380791233</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.002546618837336924</v>
+        <v>0.002601551627734254</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01280727754940671</v>
+        <v>0.01372464459575943</v>
       </c>
     </row>
     <row r="27">
@@ -4276,19 +4276,19 @@
         <v>528787</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>516048</v>
+        <v>517065</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>538214</v>
+        <v>537491</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9539137763651778</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9309330848686264</v>
+        <v>0.9327680922022507</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9709191896275837</v>
+        <v>0.9696152837812291</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>630</v>
@@ -4297,19 +4297,19 @@
         <v>673195</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>656132</v>
+        <v>657005</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>688499</v>
+        <v>688572</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9099431330369002</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8868793653749809</v>
+        <v>0.8880593307183395</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9306294664065153</v>
+        <v>0.9307280707931034</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1106</v>
@@ -4318,19 +4318,19 @@
         <v>1201982</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1182500</v>
+        <v>1179834</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1221070</v>
+        <v>1219738</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.928777370074571</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9137239597855115</v>
+        <v>0.9116638643405942</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9435269298434874</v>
+        <v>0.9424978023115892</v>
       </c>
     </row>
     <row r="28">
@@ -4665,7 +4665,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4652</v>
+        <v>4281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005478025486480192</v>
@@ -4674,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02794715932908221</v>
+        <v>0.02571848138187299</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>4</v>
@@ -4683,19 +4683,19 @@
         <v>5137</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1265</v>
+        <v>1284</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12689</v>
+        <v>13011</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01972878755218701</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.004859794224501749</v>
+        <v>0.004929532040828781</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04873481081713583</v>
+        <v>0.04997072040067581</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -4704,19 +4704,19 @@
         <v>6049</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2090</v>
+        <v>1840</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12638</v>
+        <v>13242</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01417132955528968</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004896536693106028</v>
+        <v>0.004310222691876802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02960814382775649</v>
+        <v>0.03102440548542877</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>7548</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3436</v>
+        <v>3716</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>13623</v>
+        <v>14751</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04534738723212616</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02064216330501211</v>
+        <v>0.02232325326064951</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08184005353915817</v>
+        <v>0.08862017539464</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -4754,19 +4754,19 @@
         <v>22013</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13930</v>
+        <v>13716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>33304</v>
+        <v>32991</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.084543929321465</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05349926488677839</v>
+        <v>0.05267662757138198</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1279067366733633</v>
+        <v>0.1267055073270025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>26</v>
@@ -4775,19 +4775,19 @@
         <v>29562</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>20183</v>
+        <v>19399</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42298</v>
+        <v>41895</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06925821089597006</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04728631382291371</v>
+        <v>0.04544790814804574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.09909673942905395</v>
+        <v>0.09815334140939977</v>
       </c>
     </row>
     <row r="6">
@@ -4807,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4194</v>
+        <v>4725</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.005074387153970893</v>
@@ -4816,7 +4816,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02519809748686606</v>
+        <v>0.02838759513392217</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -4828,7 +4828,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5652</v>
+        <v>5705</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004343411704855998</v>
@@ -4837,7 +4837,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02170517756985852</v>
+        <v>0.02191112997473892</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -4849,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6952</v>
+        <v>6262</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004628474730713044</v>
@@ -4858,7 +4858,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01628658281123303</v>
+        <v>0.01467134134202118</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>157149</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>150751</v>
+        <v>149380</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>161546</v>
+        <v>161628</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9441002001274228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9056635886230058</v>
+        <v>0.8974272901785442</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9705159167471812</v>
+        <v>0.9710076838207828</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -4896,19 +4896,19 @@
         <v>232097</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220104</v>
+        <v>220395</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241670</v>
+        <v>240727</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.891383871421492</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8453235323629518</v>
+        <v>0.8464406325112992</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9281514495747344</v>
+        <v>0.9245306557632722</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>364</v>
@@ -4917,19 +4917,19 @@
         <v>389246</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>376018</v>
+        <v>376219</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>400721</v>
+        <v>400140</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9119419848180272</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8809515767927149</v>
+        <v>0.8814220969061726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9388270755037752</v>
+        <v>0.9374646343961726</v>
       </c>
     </row>
     <row r="8">
@@ -5068,19 +5068,19 @@
         <v>4125</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10654</v>
+        <v>10473</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02429729002394515</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005230408892073831</v>
+        <v>0.005213531403693759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0627596451660461</v>
+        <v>0.06169146783669108</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>8</v>
@@ -5089,19 +5089,19 @@
         <v>9747</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4501</v>
+        <v>4488</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>18168</v>
+        <v>18977</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0441427853331812</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02038334942292181</v>
+        <v>0.02032679366145692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08228120206401561</v>
+        <v>0.08594469405880723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -5110,19 +5110,19 @@
         <v>13872</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7191</v>
+        <v>7051</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>23084</v>
+        <v>23160</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03551679680016451</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0184122523077131</v>
+        <v>0.01805345411634054</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05910362182461438</v>
+        <v>0.05929826571160955</v>
       </c>
     </row>
     <row r="11">
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6329</v>
+        <v>6173</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01016428201425402</v>
@@ -5151,7 +5151,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03727896525220148</v>
+        <v>0.03636256291353157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6116</v>
+        <v>6025</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.005376723995904812</v>
@@ -5172,7 +5172,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02769757871889703</v>
+        <v>0.02728560338300578</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -5181,19 +5181,19 @@
         <v>2913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>760</v>
+        <v>767</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7792</v>
+        <v>8437</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.007457670826605111</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.001946784405700866</v>
+        <v>0.001962794748254974</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01994928536744059</v>
+        <v>0.02160091855211891</v>
       </c>
     </row>
     <row r="12">
@@ -5210,19 +5210,19 @@
         <v>163913</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>157924</v>
+        <v>156551</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>167931</v>
+        <v>167616</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9655384279618008</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9302599832246797</v>
+        <v>0.9221728008397652</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.989211296647251</v>
+        <v>0.9873551456864806</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>179</v>
@@ -5231,19 +5231,19 @@
         <v>209871</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>201433</v>
+        <v>200458</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>215909</v>
+        <v>215330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.950480490670914</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9122649334734406</v>
+        <v>0.9078496358540276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9778269321525731</v>
+        <v>0.9752047688444755</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>356</v>
@@ -5252,19 +5252,19 @@
         <v>373784</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>364563</v>
+        <v>362678</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>381643</v>
+        <v>380599</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9570255323732304</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9334176254188232</v>
+        <v>0.9285923026577002</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9771487497949407</v>
+        <v>0.9744744561259699</v>
       </c>
     </row>
     <row r="13">
@@ -5359,7 +5359,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5643</v>
+        <v>5077</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.00641089864477355</v>
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03622399138596364</v>
+        <v>0.03259146577737741</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5377,19 +5377,19 @@
         <v>5671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1253</v>
+        <v>1257</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13221</v>
+        <v>13749</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03080378271204152</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006804172678904949</v>
+        <v>0.006827320629806611</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07181372719594421</v>
+        <v>0.07467727976144513</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -5398,19 +5398,19 @@
         <v>6670</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2215</v>
+        <v>2223</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15275</v>
+        <v>14893</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01962412596419842</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006516141375648449</v>
+        <v>0.006539534243174068</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04494416511227928</v>
+        <v>0.04381981330823385</v>
       </c>
     </row>
     <row r="15">
@@ -5427,19 +5427,19 @@
         <v>2884</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8432</v>
+        <v>7970</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01851550965483051</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.005214610373808098</v>
+        <v>0.005169979625065857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05413387171987789</v>
+        <v>0.05116336591008799</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>9</v>
@@ -5448,19 +5448,19 @@
         <v>11112</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5031</v>
+        <v>5225</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20013</v>
+        <v>20584</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.06035660945303165</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02732786683800969</v>
+        <v>0.02838185898778756</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1087037505429019</v>
+        <v>0.1118042465331367</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>12</v>
@@ -5469,19 +5469,19 @@
         <v>13996</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7735</v>
+        <v>7710</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>24427</v>
+        <v>23872</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04118015076097316</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02275948793032994</v>
+        <v>0.02268577085653279</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.07186981970706297</v>
+        <v>0.07023643914971418</v>
       </c>
     </row>
     <row r="16">
@@ -5501,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5042</v>
+        <v>5456</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.005763449845538756</v>
@@ -5510,7 +5510,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03236658555347406</v>
+        <v>0.03502521876435583</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -5535,7 +5535,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4462</v>
+        <v>5421</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002641483097236285</v>
@@ -5544,7 +5544,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01312854931867815</v>
+        <v>0.0159493360868719</v>
       </c>
     </row>
     <row r="17">
@@ -5561,19 +5561,19 @@
         <v>150990</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>144808</v>
+        <v>144991</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>154049</v>
+        <v>154056</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9693101418548572</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9296239512383697</v>
+        <v>0.9307986981796165</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9889440134357746</v>
+        <v>0.9889914081353364</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>140</v>
@@ -5582,19 +5582,19 @@
         <v>167323</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>157067</v>
+        <v>156908</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>175385</v>
+        <v>174873</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9088396078349268</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8531348879625319</v>
+        <v>0.8522697207780199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9526315747392045</v>
+        <v>0.9498484226234374</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>300</v>
@@ -5603,19 +5603,19 @@
         <v>318313</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>306709</v>
+        <v>305970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>326417</v>
+        <v>326086</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9365542401775921</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9024118603757496</v>
+        <v>0.9002388160856106</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9603987273817011</v>
+        <v>0.9594225612709925</v>
       </c>
     </row>
     <row r="18">
@@ -5707,19 +5707,19 @@
         <v>2617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>817</v>
+        <v>793</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7148</v>
+        <v>6955</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02975590725134183</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.009291846773783002</v>
+        <v>0.009018430773812848</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08128346373690913</v>
+        <v>0.07908683048940712</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7207</v>
+        <v>8531</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02249946356949083</v>
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06765170956979659</v>
+        <v>0.08007223583120998</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -5749,19 +5749,19 @@
         <v>5014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1184</v>
+        <v>1768</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10618</v>
+        <v>10990</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02578085643542683</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.006089755833215048</v>
+        <v>0.009091287736610564</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05459728136096266</v>
+        <v>0.05650973863804478</v>
       </c>
     </row>
     <row r="20">
@@ -5778,19 +5778,19 @@
         <v>2642</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>791</v>
+        <v>787</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7634</v>
+        <v>7103</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03003861844946239</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.00899037869733596</v>
+        <v>0.008943194974617709</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08680792311730297</v>
+        <v>0.08076609630079025</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5802,7 +5802,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6165</v>
+        <v>5445</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01131090840636246</v>
@@ -5811,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05786427043135984</v>
+        <v>0.0511135799740537</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>4</v>
@@ -5820,19 +5820,19 @@
         <v>3847</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1029</v>
+        <v>1145</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9036</v>
+        <v>9665</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01977965381734736</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.005290268470504458</v>
+        <v>0.00588531362897909</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04646449430870827</v>
+        <v>0.04969497255173047</v>
       </c>
     </row>
     <row r="21">
@@ -5896,19 +5896,19 @@
         <v>82686</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>76488</v>
+        <v>78012</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85556</v>
+        <v>86135</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9402054742991958</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8697293994396543</v>
+        <v>0.8870521104857325</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9728314886714687</v>
+        <v>0.9794198402084633</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -5917,19 +5917,19 @@
         <v>102934</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>97090</v>
+        <v>96725</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>105412</v>
+        <v>105386</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9661896280241467</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9113321656417975</v>
+        <v>0.9079044279920694</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9894480880631114</v>
+        <v>0.9892100254243106</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -5938,19 +5938,19 @@
         <v>185620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>178810</v>
+        <v>178461</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>190723</v>
+        <v>190347</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9544394897472258</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9194210306495527</v>
+        <v>0.9176270494257917</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.980674460338492</v>
+        <v>0.9787454407197511</v>
       </c>
     </row>
     <row r="23">
@@ -6042,19 +6042,19 @@
         <v>4527</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1781</v>
+        <v>1721</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10312</v>
+        <v>9927</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007806688953120981</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003070681554053993</v>
+        <v>0.002968033688317038</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01778181927339832</v>
+        <v>0.0171166154096269</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>10</v>
@@ -6063,19 +6063,19 @@
         <v>13205</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>6968</v>
+        <v>6327</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>24091</v>
+        <v>24772</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01710894110363955</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.009028077195699495</v>
+        <v>0.008197753246671066</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03121316425356578</v>
+        <v>0.03209562553463769</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>15</v>
@@ -6084,19 +6084,19 @@
         <v>17732</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10422</v>
+        <v>10057</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>28103</v>
+        <v>29047</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0131180709879794</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.007710162518518396</v>
+        <v>0.007439755503399966</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02078968135275503</v>
+        <v>0.02148847583011693</v>
       </c>
     </row>
     <row r="25">
@@ -6113,19 +6113,19 @@
         <v>17199</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>10381</v>
+        <v>10769</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25736</v>
+        <v>27283</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02965680517081964</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01790042064995008</v>
+        <v>0.01856869146641821</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04437708549281289</v>
+        <v>0.04704550428687693</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>35</v>
@@ -6134,19 +6134,19 @@
         <v>44077</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>32100</v>
+        <v>32176</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>59781</v>
+        <v>62432</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0571079546207522</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04158951685662533</v>
+        <v>0.04168845845391383</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07745468289841534</v>
+        <v>0.08088828058967283</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>54</v>
@@ -6155,19 +6155,19 @@
         <v>61276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45661</v>
+        <v>46045</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78485</v>
+        <v>77261</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.04533080966622105</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0337789435474672</v>
+        <v>0.03406304399620783</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.05806160944530633</v>
+        <v>0.05715583118331726</v>
       </c>
     </row>
     <row r="26">
@@ -6184,19 +6184,19 @@
         <v>3468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8718</v>
+        <v>8708</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005979912826920324</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001546466818261512</v>
+        <v>0.001542760893800169</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01503305575751398</v>
+        <v>0.01501503977917794</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2</v>
@@ -6208,7 +6208,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>8064</v>
+        <v>7069</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.003003446673137721</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01044850383688292</v>
+        <v>0.009158771980075442</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>6</v>
@@ -6226,19 +6226,19 @@
         <v>5786</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2084</v>
+        <v>2026</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>12372</v>
+        <v>12314</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00428041590931809</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.001541559758154813</v>
+        <v>0.001498588896894647</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.009152756952353342</v>
+        <v>0.009109335117729345</v>
       </c>
     </row>
     <row r="27">
@@ -6255,19 +6255,19 @@
         <v>554740</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>543989</v>
+        <v>543593</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>563441</v>
+        <v>562672</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9565565930491391</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9380179598808105</v>
+        <v>0.9373359622990911</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9715604711568306</v>
+        <v>0.970233940361555</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>603</v>
@@ -6276,19 +6276,19 @@
         <v>712223</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>692413</v>
+        <v>693183</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>726956</v>
+        <v>725958</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.9227796576024705</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8971125342810555</v>
+        <v>0.8981101791184517</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9418676488253719</v>
+        <v>0.9405742706704114</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1191</v>
@@ -6297,19 +6297,19 @@
         <v>1266963</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1247195</v>
+        <v>1244782</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1284370</v>
+        <v>1283244</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9372707034364814</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9226463168261116</v>
+        <v>0.9208618874092921</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9501476024362684</v>
+        <v>0.9493151735684069</v>
       </c>
     </row>
     <row r="28">
@@ -6644,7 +6644,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5381</v>
+        <v>5671</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02399272021065895</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07998962943098149</v>
+        <v>0.0842895345075375</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -6662,19 +6662,19 @@
         <v>4700</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2235</v>
+        <v>2094</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9015</v>
+        <v>8924</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.03286195370344914</v>
+        <v>0.03286195370344915</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01563059493527735</v>
+        <v>0.01464339677137265</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06303443196085391</v>
+        <v>0.06239924976883193</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -6683,19 +6683,19 @@
         <v>6314</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3064</v>
+        <v>2909</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11549</v>
+        <v>11264</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03002445974524602</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01457154599669562</v>
+        <v>0.01383269660087249</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05491939992487023</v>
+        <v>0.05356385798539202</v>
       </c>
     </row>
     <row r="5">
@@ -6715,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6486</v>
+        <v>5838</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02870745658715626</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09640925846637272</v>
+        <v>0.0867718158075837</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -6733,19 +6733,19 @@
         <v>12537</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8023</v>
+        <v>7976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18935</v>
+        <v>18930</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.08766057221682744</v>
+        <v>0.08766057221682745</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05609785171534318</v>
+        <v>0.0557714463942381</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1324011485198094</v>
+        <v>0.1323661201868821</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -6754,19 +6754,19 @@
         <v>14468</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9481</v>
+        <v>9396</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22167</v>
+        <v>21443</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06879996723304581</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04508453806911768</v>
+        <v>0.04468211955843292</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1054130223913959</v>
+        <v>0.1019709216226648</v>
       </c>
     </row>
     <row r="6">
@@ -6786,7 +6786,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3391</v>
+        <v>3459</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0102631922251811</v>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05040550239754934</v>
+        <v>0.05141832565458507</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -6804,19 +6804,19 @@
         <v>1977</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5693</v>
+        <v>5356</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01382043006372883</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004460267283638826</v>
+        <v>0.004508127483915278</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03980756978487826</v>
+        <v>0.0374477978367434</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>4</v>
@@ -6825,19 +6825,19 @@
         <v>2667</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>6597</v>
+        <v>6792</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01268237897025206</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003155165461269671</v>
+        <v>0.003186455955226705</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03137261455986481</v>
+        <v>0.03229876596026951</v>
       </c>
     </row>
     <row r="7">
@@ -6854,19 +6854,19 @@
         <v>63041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>58067</v>
+        <v>58320</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>65648</v>
+        <v>65871</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9370366309770037</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8631070160253675</v>
+        <v>0.8668627760702587</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9757847919640085</v>
+        <v>0.9791072405334177</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>234</v>
@@ -6875,19 +6875,19 @@
         <v>123800</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>116094</v>
+        <v>116991</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>129045</v>
+        <v>129252</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.8656570440159946</v>
+        <v>0.8656570440159945</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8117691289454858</v>
+        <v>0.8180477801032527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9023334729380473</v>
+        <v>0.9037780144161561</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>323</v>
@@ -6896,19 +6896,19 @@
         <v>186841</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>178624</v>
+        <v>179144</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>193431</v>
+        <v>193887</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.8884931940514559</v>
+        <v>0.8884931940514563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8494154126518255</v>
+        <v>0.8518909120819286</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9198317665757453</v>
+        <v>0.9219984024027608</v>
       </c>
     </row>
     <row r="8">
@@ -7000,19 +7000,19 @@
         <v>2687</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>822</v>
+        <v>936</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6524</v>
+        <v>6241</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.01334908016372373</v>
+        <v>0.01334908016372374</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004081798918938412</v>
+        <v>0.004648637194073534</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03240647551989668</v>
+        <v>0.0310046985946188</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -7021,19 +7021,19 @@
         <v>5990</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2784</v>
+        <v>2809</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10980</v>
+        <v>11122</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01981248331559339</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009207763131971143</v>
+        <v>0.009289388084327374</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03631675350805624</v>
+        <v>0.03678514871816224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -7042,19 +7042,19 @@
         <v>8677</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4880</v>
+        <v>5183</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14493</v>
+        <v>14690</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01722907561889614</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009689419326221915</v>
+        <v>0.01029199063865863</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02877630024352217</v>
+        <v>0.029167375207495</v>
       </c>
     </row>
     <row r="10">
@@ -7071,19 +7071,19 @@
         <v>5546</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2285</v>
+        <v>2766</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>10885</v>
+        <v>11097</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02755013023725232</v>
+        <v>0.02755013023725233</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01135150651133479</v>
+        <v>0.01373881152346242</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05407171087742903</v>
+        <v>0.05512755474002366</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>31</v>
@@ -7092,19 +7092,19 @@
         <v>15954</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>10546</v>
+        <v>11442</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22142</v>
+        <v>22316</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05277004570804999</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03488056891567043</v>
+        <v>0.037844348840405</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07323774504983763</v>
+        <v>0.07381126528237943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>39</v>
@@ -7113,19 +7113,19 @@
         <v>21500</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>15624</v>
+        <v>15401</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29926</v>
+        <v>29397</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04268970224092991</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03102178368693862</v>
+        <v>0.03057838439335292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05941841429655237</v>
+        <v>0.05836917171278599</v>
       </c>
     </row>
     <row r="11">
@@ -7145,16 +7145,16 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4591</v>
+        <v>4034</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.006532770962968401</v>
+        <v>0.006532770962968402</v>
       </c>
       <c r="H11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02280484085789804</v>
+        <v>0.02003902609835205</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -7163,19 +7163,19 @@
         <v>2949</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>975</v>
+        <v>1065</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6443</v>
+        <v>6795</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.009754489152916478</v>
+        <v>0.00975448915291648</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.003223649949559308</v>
+        <v>0.003522889282167033</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02131086974352402</v>
+        <v>0.02247398290677766</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -7184,19 +7184,19 @@
         <v>4264</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1828</v>
+        <v>1766</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>8329</v>
+        <v>8510</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.008466775641483449</v>
+        <v>0.008466775641483451</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.003629416127877824</v>
+        <v>0.003506977304402889</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01653766938666655</v>
+        <v>0.01689707817441913</v>
       </c>
     </row>
     <row r="12">
@@ -7213,19 +7213,19 @@
         <v>191756</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>185862</v>
+        <v>185317</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>195944</v>
+        <v>195902</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.9525680186360554</v>
+        <v>0.9525680186360556</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9232882886379413</v>
+        <v>0.9205843907881284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9733745590629467</v>
+        <v>0.9731634690460345</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>522</v>
@@ -7234,19 +7234,19 @@
         <v>277443</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>269646</v>
+        <v>269903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>283778</v>
+        <v>283395</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9176629818234402</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8918707856328029</v>
+        <v>0.8927211008980089</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9386143011627888</v>
+        <v>0.9373469214586589</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>802</v>
@@ -7255,19 +7255,19 @@
         <v>469199</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>458607</v>
+        <v>459663</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>476961</v>
+        <v>477101</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9316144464986905</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9105831153207412</v>
+        <v>0.912679638962236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9470259722753362</v>
+        <v>0.9473045057212701</v>
       </c>
     </row>
     <row r="13">
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1798</v>
+        <v>2445</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001495307999741915</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007839151111855409</v>
+        <v>0.01066198842864333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -7380,19 +7380,19 @@
         <v>3623</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1570</v>
+        <v>1583</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7042</v>
+        <v>7375</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01531788508321032</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006639916302655163</v>
+        <v>0.006694391610190161</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02977332200222209</v>
+        <v>0.03118358161185804</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -7401,19 +7401,19 @@
         <v>3966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1922</v>
+        <v>1969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7586</v>
+        <v>7561</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.00851333731423267</v>
+        <v>0.008513337314232669</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004125023521666655</v>
+        <v>0.004226813978777396</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01628419781682549</v>
+        <v>0.01623209893330803</v>
       </c>
     </row>
     <row r="15">
@@ -7430,19 +7430,19 @@
         <v>2543</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>621</v>
+        <v>606</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6070</v>
+        <v>6324</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.0110891043836137</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.002708630752226985</v>
+        <v>0.00264049862048707</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02647081754732422</v>
+        <v>0.0275779263046711</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -7451,19 +7451,19 @@
         <v>9100</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>5197</v>
+        <v>5260</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>14829</v>
+        <v>14862</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.03847598026293246</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.02197275644977255</v>
+        <v>0.02223832206749253</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06270001280335215</v>
+        <v>0.06283902763068949</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>20</v>
@@ -7472,19 +7472,19 @@
         <v>11643</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7183</v>
+        <v>7077</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>18733</v>
+        <v>17506</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.0249940293909229</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01542077581420385</v>
+        <v>0.01519255949109725</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04021548400546286</v>
+        <v>0.03758101402164363</v>
       </c>
     </row>
     <row r="16">
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4431</v>
+        <v>4369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.003816473314939317</v>
@@ -7513,7 +7513,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01932141873911909</v>
+        <v>0.01905083920278561</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7522,19 +7522,19 @@
         <v>3243</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7483</v>
+        <v>7279</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01371056685156842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004833919323302547</v>
+        <v>0.004768993680790246</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03163993896309084</v>
+        <v>0.03077639554049615</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -7543,19 +7543,19 @@
         <v>4118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1461</v>
+        <v>1585</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>8398</v>
+        <v>8463</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.008839924301038153</v>
+        <v>0.008839924301038152</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003136774511256893</v>
+        <v>0.003401652328258559</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01802865022939877</v>
+        <v>0.01816801634299683</v>
       </c>
     </row>
     <row r="17">
@@ -7572,19 +7572,19 @@
         <v>225553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>221371</v>
+        <v>221488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227869</v>
+        <v>227943</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9835991143017051</v>
+        <v>0.9835991143017052</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9653628035131804</v>
+        <v>0.9658719011388965</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9936983552549751</v>
+        <v>0.9940215608084372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>420</v>
@@ -7593,19 +7593,19 @@
         <v>220544</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>213214</v>
+        <v>213548</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>225338</v>
+        <v>225713</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9324955678022888</v>
+        <v>0.932495567802289</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9015061398642827</v>
+        <v>0.9029172164135331</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9527684789458128</v>
+        <v>0.9543539830286235</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>743</v>
@@ -7614,19 +7614,19 @@
         <v>446097</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>438136</v>
+        <v>438446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>452043</v>
+        <v>452288</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9576527089938064</v>
+        <v>0.9576527089938063</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.940563259687709</v>
+        <v>0.9412295753052077</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9704178381790496</v>
+        <v>0.9709435020465402</v>
       </c>
     </row>
     <row r="18">
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3715</v>
+        <v>2786</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003042098416603249</v>
@@ -7730,7 +7730,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01745416746192405</v>
+        <v>0.01308758362025617</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -7739,19 +7739,19 @@
         <v>1985</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4932</v>
+        <v>5640</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009525663889228365</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.002439587476554636</v>
+        <v>0.002450186611387693</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02366803103438777</v>
+        <v>0.02706811819567177</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>5</v>
@@ -7760,19 +7760,19 @@
         <v>2632</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>986</v>
+        <v>945</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>5844</v>
+        <v>5679</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006249471164568629</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002341601086413502</v>
+        <v>0.002243626210532409</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01387503051651601</v>
+        <v>0.01348265578064254</v>
       </c>
     </row>
     <row r="20">
@@ -7789,19 +7789,19 @@
         <v>2084</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6638</v>
+        <v>6784</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009792037329569589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002310259721133265</v>
+        <v>0.002533283910048682</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03118893451634533</v>
+        <v>0.03187305597126982</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>20</v>
@@ -7810,19 +7810,19 @@
         <v>11212</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7113</v>
+        <v>6907</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18498</v>
+        <v>18321</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05380581898536414</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03413444571226279</v>
+        <v>0.03314840234827167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08877241098836613</v>
+        <v>0.08792543289997358</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>23</v>
@@ -7831,19 +7831,19 @@
         <v>13296</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8492</v>
+        <v>8395</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20927</v>
+        <v>21457</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03156533543440643</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02015991693136688</v>
+        <v>0.01993045562678832</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04968281609399887</v>
+        <v>0.05094018156382145</v>
       </c>
     </row>
     <row r="21">
@@ -7863,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>3032</v>
+        <v>3324</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.002807979111246244</v>
@@ -7872,7 +7872,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.01424311025163873</v>
+        <v>0.01561922969265767</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>3</v>
@@ -7881,19 +7881,19 @@
         <v>1847</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>5298</v>
+        <v>5025</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.008866156098584151</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.002777967404501233</v>
+        <v>0.002747838878771728</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02542296831106201</v>
+        <v>0.02411607728197955</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>4</v>
@@ -7902,19 +7902,19 @@
         <v>2445</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5419</v>
+        <v>6119</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.005804915265215753</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.001447386603473682</v>
+        <v>0.001436849985958922</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.01286579843176898</v>
+        <v>0.01452683501315485</v>
       </c>
     </row>
     <row r="22">
@@ -7931,19 +7931,19 @@
         <v>209517</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>204480</v>
+        <v>204771</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211701</v>
+        <v>211599</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.984357885142581</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9606923646386621</v>
+        <v>0.9620609842082294</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9946192643386907</v>
+        <v>0.9941410729049331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>369</v>
@@ -7952,19 +7952,19 @@
         <v>193331</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>186297</v>
+        <v>185807</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>198462</v>
+        <v>198303</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9278023610268233</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8940478127187372</v>
+        <v>0.8916931040957788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.95242661107051</v>
+        <v>0.9516627462442933</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>666</v>
@@ -7973,19 +7973,19 @@
         <v>402847</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>394765</v>
+        <v>394328</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>408352</v>
+        <v>408727</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.9563802781358093</v>
+        <v>0.9563802781358091</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9371942002652954</v>
+        <v>0.9361558538084007</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9694502057324963</v>
+        <v>0.9703402300834113</v>
       </c>
     </row>
     <row r="23">
@@ -8077,19 +8077,19 @@
         <v>5292</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2525</v>
+        <v>2584</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10381</v>
+        <v>10234</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.007445433875592582</v>
+        <v>0.007445433875592581</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.003552044121255283</v>
+        <v>0.003636311969047526</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01460586126549317</v>
+        <v>0.01439870703374964</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -8098,19 +8098,19 @@
         <v>16297</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>10948</v>
+        <v>11169</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>22828</v>
+        <v>23539</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01830693914427749</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01229749436027519</v>
+        <v>0.01254632755823979</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02564249242404416</v>
+        <v>0.02644109065966095</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -8119,19 +8119,19 @@
         <v>21589</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>15363</v>
+        <v>15153</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29830</v>
+        <v>29023</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0134850497447546</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00959593017264946</v>
+        <v>0.009464778430767682</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01863221084991878</v>
+        <v>0.01812864974412082</v>
       </c>
     </row>
     <row r="25">
@@ -8148,19 +8148,19 @@
         <v>12104</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6855</v>
+        <v>7040</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>19567</v>
+        <v>19089</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01703065937539327</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.00964552167014042</v>
+        <v>0.009904525313681464</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02753040100752952</v>
+        <v>0.0268579159918543</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>88</v>
@@ -8169,19 +8169,19 @@
         <v>48803</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>39699</v>
+        <v>39775</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>60313</v>
+        <v>60571</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.05482000470912704</v>
+        <v>0.05482000470912703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04459407992854426</v>
+        <v>0.04467961898687633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06774980942076132</v>
+        <v>0.06803953855156129</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>105</v>
@@ -8190,19 +8190,19 @@
         <v>60907</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>49563</v>
+        <v>48779</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>74490</v>
+        <v>73000</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03804368879599181</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03095774658977981</v>
+        <v>0.03046829229053148</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04652763654763437</v>
+        <v>0.04559748729077961</v>
       </c>
     </row>
     <row r="26">
@@ -8219,19 +8219,19 @@
         <v>3478</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1345</v>
+        <v>1250</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7904</v>
+        <v>7798</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004894030675462712</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.001892279336186583</v>
+        <v>0.001759054633431544</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01112114714578858</v>
+        <v>0.01097116200926317</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -8240,19 +8240,19 @@
         <v>10016</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5949</v>
+        <v>5961</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>16160</v>
+        <v>16403</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01125075185907876</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006682126916262846</v>
+        <v>0.006696488337964193</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01815205237065578</v>
+        <v>0.01842540965206168</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>21</v>
@@ -8261,19 +8261,19 @@
         <v>13494</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8675</v>
+        <v>8518</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>20324</v>
+        <v>19717</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008428729889492953</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005418883614200872</v>
+        <v>0.005320486607609123</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01269446512983026</v>
+        <v>0.0123154353214703</v>
       </c>
     </row>
     <row r="27">
@@ -8290,19 +8290,19 @@
         <v>689866</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>681230</v>
+        <v>681206</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>696728</v>
+        <v>696052</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9706298760735513</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9584782781646194</v>
+        <v>0.9584447498717108</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9802833611103628</v>
+        <v>0.9793332228025703</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>1545</v>
@@ -8311,19 +8311,19 @@
         <v>815117</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>800570</v>
+        <v>802085</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>826432</v>
+        <v>827318</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.9156223042875168</v>
+        <v>0.9156223042875167</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.8992818473252049</v>
+        <v>0.9009826953242169</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.9283319703340051</v>
+        <v>0.9293275586816367</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>2534</v>
@@ -8332,19 +8332,19 @@
         <v>1504984</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1489147</v>
+        <v>1491362</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>1520163</v>
+        <v>1520026</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9400425315697606</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9301509194540653</v>
+        <v>0.9315342633404231</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9495240816212555</v>
+        <v>0.9494381152784953</v>
       </c>
     </row>
     <row r="28">
